--- a/2-Basico/Funções+Básicas01.xlsx
+++ b/2-Basico/Funções+Básicas01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso_Excel_BI_Udemy\2-Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096FF57E-C21E-4698-8F8D-CC79483E2024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E6E59-1B39-4748-9732-17EC992EC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="14" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="431">
   <si>
     <t>Total de mercadorias vendidas</t>
   </si>
@@ -2367,6 +2367,15 @@
   </si>
   <si>
     <t>(ALTOSOMA)</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Atual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de nascimento  </t>
   </si>
 </sst>
 </file>
@@ -3647,7 +3656,7 @@
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4389,6 +4398,7 @@
     </xf>
     <xf numFmtId="168" fontId="72" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -7410,8 +7420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10329,7 +10339,7 @@
       </c>
       <c r="G5" s="57">
         <f ca="1">TODAY()</f>
-        <v>46075</v>
+        <v>46076</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10351,7 +10361,7 @@
       </c>
       <c r="G6" s="312">
         <f ca="1">TODAY()+30</f>
-        <v>46105</v>
+        <v>46106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10373,7 +10383,7 @@
       </c>
       <c r="G7" s="313">
         <f ca="1">NOW()</f>
-        <v>46075.690404629633</v>
+        <v>46076.527179861114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13471,9 +13481,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13481,9 +13493,11 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="224" t="s">
         <v>167</v>
       </c>
@@ -13491,13 +13505,13 @@
       <c r="C2" s="224"/>
       <c r="D2" s="224"/>
     </row>
-    <row r="3" spans="1:4" ht="8.25" customHeight="1">
+    <row r="3" spans="1:7" ht="8.25" customHeight="1">
       <c r="A3" s="225"/>
       <c r="B3" s="225"/>
       <c r="C3" s="225"/>
       <c r="D3" s="225"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
         <v>169</v>
       </c>
@@ -13511,7 +13525,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="20" t="s">
         <v>172</v>
       </c>
@@ -13521,23 +13535,35 @@
       <c r="C5" s="34">
         <v>0.1</v>
       </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D5" s="55">
+        <f>B5*C5</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="317">
+        <f>B5*(1+C5)</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="G5" s="317">
+        <f>B5*110%</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="224" t="s">
         <v>167</v>
       </c>
       <c r="B8" s="224"/>
       <c r="C8" s="224"/>
       <c r="D8" s="224"/>
-    </row>
-    <row r="9" spans="1:4" ht="9" customHeight="1">
+      <c r="F8" s="310"/>
+    </row>
+    <row r="9" spans="1:7" ht="9" customHeight="1">
       <c r="A9" s="226"/>
       <c r="B9" s="227"/>
       <c r="C9" s="227"/>
       <c r="D9" s="228"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="20" t="s">
         <v>174</v>
       </c>
@@ -13551,7 +13577,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="20" t="s">
         <v>177</v>
       </c>
@@ -13561,38 +13587,77 @@
       <c r="C11" s="34">
         <v>0.08</v>
       </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D11" s="55">
+        <f>B11-B11*C11</f>
+        <v>920</v>
+      </c>
+      <c r="F11" s="317">
+        <f>B11*(1-C11)</f>
+        <v>920</v>
+      </c>
+      <c r="G11" s="317">
+        <f>B11*92%</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="224" t="s">
         <v>181</v>
       </c>
       <c r="B13" s="224"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" s="224" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="224"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B14" s="33">
         <v>40964</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="33">
+        <f ca="1">TODAY()</f>
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="20" t="s">
         <v>179</v>
       </c>
       <c r="B15" s="33">
         <v>40949</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="G15" s="33">
+        <v>40949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32">
+        <f>B14-B15</f>
+        <v>15</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="32" t="str">
+        <f ca="1">DATEDIF(G15,G14, "Y")&amp; " anos"</f>
+        <v>14 anos</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A13:B13"/>

--- a/2-Basico/Funções+Básicas01.xlsx
+++ b/2-Basico/Funções+Básicas01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso_Excel_BI_Udemy\2-Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E6E59-1B39-4748-9732-17EC992EC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261BBC94-3914-43F7-9B99-53E32A44B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="14" r:id="rId1"/>
@@ -2393,7 +2393,7 @@
     <numFmt numFmtId="169" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yy\ \-\ dddd"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy\ \-\ dddd"/>
   </numFmts>
   <fonts count="73">
     <font>
@@ -3656,7 +3656,7 @@
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4080,325 +4080,323 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" xfId="12" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="26" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="14" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="28" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="29" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="27" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="25" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="7" borderId="36" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="20" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="15" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="16" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="16" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="32" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="33" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="35" borderId="34" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="35" borderId="35" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="71" fillId="14" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="72" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" xfId="12" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="26" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="14" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="28" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="29" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="30" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="27" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="25" borderId="1" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="36" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="20" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="15" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="16" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="32" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="33" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="35" borderId="34" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="35" borderId="35" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -7433,12 +7431,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="264"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="57"/>
@@ -7501,7 +7499,7 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F6" s="310"/>
+      <c r="F6" s="208"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
@@ -7534,12 +7532,12 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="259" t="s">
+      <c r="A10" s="265" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="148" t="s">
@@ -7577,7 +7575,7 @@
       <c r="A13" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="316">
+      <c r="B13" s="61">
         <f>LARGE(B4:B8,3)</f>
         <v>830</v>
       </c>
@@ -7625,7 +7623,7 @@
       <c r="A16" s="146" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="315">
+      <c r="B16" s="212">
         <f>AVERAGE(C4:C8)</f>
         <v>4460</v>
       </c>
@@ -7664,21 +7662,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="266" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="268" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="65" t="s">
@@ -7776,20 +7774,20 @@
       <c r="E10" s="64"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="261" t="s">
+      <c r="A13" s="267" t="s">
         <v>350</v>
       </c>
-      <c r="B13" s="261"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="261"/>
-      <c r="B14" s="261"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
+      <c r="A14" s="267"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1"/>
   </sheetData>
@@ -7827,13 +7825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="269" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="75" t="s">
@@ -7988,20 +7986,20 @@
       <c r="E12" s="20"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="264" t="s">
+      <c r="A15" s="270" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="264"/>
-      <c r="C15" s="264"/>
-      <c r="D15" s="265">
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="271">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="264"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="265"/>
+      <c r="A16" s="270"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8031,12 +8029,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="272" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="76" t="s">
@@ -8109,18 +8107,18 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="273" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="267"/>
-      <c r="B12" s="267"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="267"/>
+      <c r="A12" s="273"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8167,28 +8165,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="274" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="275" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="276" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="270"/>
+      <c r="B3" s="276"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8687,18 +8685,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="277" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="6"/>
-      <c r="F2" s="272" t="s">
+      <c r="F2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="272"/>
+      <c r="G2" s="278"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="86" t="s">
@@ -8969,18 +8967,18 @@
       <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
       <c r="E2" s="133"/>
       <c r="F2" s="128"/>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="279" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="273"/>
+      <c r="H2" s="279"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="130"/>
@@ -9121,10 +9119,10 @@
       <c r="D11" s="130"/>
       <c r="E11" s="128"/>
       <c r="F11" s="128"/>
-      <c r="G11" s="273" t="s">
+      <c r="G11" s="279" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="273"/>
+      <c r="H11" s="279"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="130">
@@ -9340,11 +9338,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="281" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
       <c r="F1" s="121"/>
@@ -9352,9 +9350,9 @@
       <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="279"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="281"/>
+      <c r="A2" s="285"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="287"/>
       <c r="D2" s="121"/>
       <c r="E2" s="121"/>
       <c r="F2" s="121"/>
@@ -9429,11 +9427,11 @@
       <c r="C7" s="124"/>
       <c r="D7" s="121"/>
       <c r="E7" s="121"/>
-      <c r="F7" s="276" t="s">
+      <c r="F7" s="282" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="277"/>
-      <c r="H7" s="278"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="284"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="124" t="s">
@@ -9666,16 +9664,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="288" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="F1" s="283" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="F1" s="289" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="284"/>
-      <c r="H1" s="285"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="291"/>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" s="91" t="s">
@@ -9839,26 +9837,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="298" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="294"/>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
+      <c r="A2" s="300"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -9904,11 +9902,11 @@
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="286" t="s">
+      <c r="H4" s="292" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="99" t="s">
@@ -9926,10 +9924,10 @@
       <c r="E5" s="101"/>
       <c r="F5" s="101"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="287" t="s">
+      <c r="H5" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="287"/>
+      <c r="I5" s="293"/>
       <c r="J5" s="103" t="s">
         <v>71</v>
       </c>
@@ -10068,11 +10066,11 @@
       <c r="E11" s="101"/>
       <c r="F11" s="101"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="290" t="s">
+      <c r="H11" s="296" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="290"/>
-      <c r="J11" s="291"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="297"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="99" t="s">
@@ -10090,10 +10088,10 @@
       <c r="E12" s="101"/>
       <c r="F12" s="101"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="288" t="s">
+      <c r="H12" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="289"/>
+      <c r="I12" s="295"/>
       <c r="J12" s="109" t="s">
         <v>69</v>
       </c>
@@ -10290,36 +10288,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
     </row>
     <row r="2" spans="1:7" ht="8.25" customHeight="1">
-      <c r="A2" s="212"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
     </row>
     <row r="4" spans="1:7" ht="9" customHeight="1">
-      <c r="A4" s="213"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
@@ -10356,10 +10354,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" ref="E6:E13" si="0">SUM(B6:D6)</f>
         <v>18</v>
       </c>
-      <c r="G6" s="312">
+      <c r="G6" s="209">
         <f ca="1">TODAY()+30</f>
         <v>46106</v>
       </c>
@@ -10378,12 +10376,12 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="G7" s="313">
+      <c r="G7" s="210">
         <f ca="1">NOW()</f>
-        <v>46076.527179861114</v>
+        <v>46076.803322569445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10400,10 +10398,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="3">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G8" s="310"/>
+      <c r="G8" s="208"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
@@ -10415,11 +10413,11 @@
       <c r="C9" s="188">
         <v>5</v>
       </c>
-      <c r="D9" s="314">
+      <c r="D9" s="211">
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -10437,10 +10435,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F10" s="310"/>
+      <c r="F10" s="208"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
@@ -10456,7 +10454,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -10474,7 +10472,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -10495,15 +10493,15 @@
         <v>59</v>
       </c>
       <c r="E13" s="3">
-        <f>SUM(B13:D13)</f>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="310"/>
+      <c r="D14" s="208"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="309" t="s">
+      <c r="A15" s="207" t="s">
         <v>423</v>
       </c>
       <c r="B15" t="s">
@@ -10512,7 +10510,6 @@
       <c r="C15" t="s">
         <v>426</v>
       </c>
-      <c r="E15" s="311"/>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
@@ -10521,7 +10518,7 @@
       <c r="C16" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="310"/>
+      <c r="E16" s="208"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -10554,12 +10551,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="302" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="117" t="s">
@@ -10616,11 +10613,11 @@
       <c r="D7" s="78"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="297" t="s">
+      <c r="A9" s="303" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="297"/>
-      <c r="C9" s="297"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="118" t="s">
@@ -10710,90 +10707,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="304" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="298"/>
-      <c r="S1" s="298"/>
-      <c r="T1" s="298"/>
-      <c r="U1" s="298"/>
-      <c r="V1" s="298"/>
-      <c r="W1" s="298"/>
-      <c r="X1" s="298"/>
-      <c r="Y1" s="298"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="304"/>
+      <c r="P1" s="304"/>
+      <c r="Q1" s="304"/>
+      <c r="R1" s="304"/>
+      <c r="S1" s="304"/>
+      <c r="T1" s="304"/>
+      <c r="U1" s="304"/>
+      <c r="V1" s="304"/>
+      <c r="W1" s="304"/>
+      <c r="X1" s="304"/>
+      <c r="Y1" s="304"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="305" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="300"/>
-      <c r="Q2" s="300"/>
-      <c r="R2" s="300"/>
-      <c r="S2" s="300"/>
-      <c r="T2" s="300"/>
-      <c r="U2" s="300"/>
-      <c r="V2" s="300"/>
-      <c r="W2" s="300"/>
-      <c r="X2" s="300"/>
-      <c r="Y2" s="300"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="306"/>
+      <c r="Q2" s="306"/>
+      <c r="R2" s="306"/>
+      <c r="S2" s="306"/>
+      <c r="T2" s="306"/>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="306"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="152"/>
-      <c r="B3" s="301" t="s">
+      <c r="B3" s="307" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="301"/>
-      <c r="S3" s="301"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="307"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
     </row>
     <row r="4" spans="1:27">
       <c r="B4" s="153" t="s">
@@ -11887,32 +11884,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="308" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
     </row>
     <row r="2" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A2" s="303"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
+      <c r="A2" s="309"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1">
       <c r="B4" s="159"/>
@@ -12248,17 +12245,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="311" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
       <c r="D1" s="182"/>
     </row>
     <row r="2" spans="1:4" ht="9.75" customHeight="1">
-      <c r="A2" s="307"/>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
+      <c r="A2" s="313"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
       <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="18">
@@ -12498,14 +12495,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="18.75">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="315" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="F3" s="207" t="s">
+      <c r="C3" s="315"/>
+      <c r="F3" s="315" t="s">
         <v>413</v>
       </c>
-      <c r="G3" s="207"/>
+      <c r="G3" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12537,18 +12534,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="189"/>
@@ -12874,25 +12871,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="226" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="14"/>
@@ -13263,22 +13260,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="229" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="220"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="231"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="221"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="198" t="s">
@@ -13483,7 +13480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -13498,18 +13495,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
     </row>
     <row r="3" spans="1:7" ht="8.25" customHeight="1">
-      <c r="A3" s="225"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
@@ -13539,29 +13536,29 @@
         <f>B5*C5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="317">
+      <c r="F5" s="213">
         <f>B5*(1+C5)</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="G5" s="317">
+      <c r="G5" s="213">
         <f>B5*110%</f>
         <v>55.000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="F8" s="310"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="F8" s="208"/>
     </row>
     <row r="9" spans="1:7" ht="9" customHeight="1">
-      <c r="A9" s="226"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="228"/>
+      <c r="A9" s="216"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="218"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="20" t="s">
@@ -13591,24 +13588,24 @@
         <f>B11-B11*C11</f>
         <v>920</v>
       </c>
-      <c r="F11" s="317">
+      <c r="F11" s="213">
         <f>B11*(1-C11)</f>
         <v>920</v>
       </c>
-      <c r="G11" s="317">
+      <c r="G11" s="213">
         <f>B11*92%</f>
         <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="224"/>
-      <c r="F13" s="224" t="s">
+      <c r="B13" s="214"/>
+      <c r="F13" s="214" t="s">
         <v>428</v>
       </c>
-      <c r="G13" s="224"/>
+      <c r="G13" s="214"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="20" t="s">
@@ -13689,21 +13686,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="237"/>
       <c r="C3" s="26">
         <v>0.02</v>
       </c>
@@ -13900,8 +13897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13913,12 +13910,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1"/>
@@ -14196,9 +14193,18 @@
       <c r="A23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="28">
+        <f>SUM(B4:B22)</f>
+        <v>39.529999999999994</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUM(C4:C22)</f>
+        <v>36.89</v>
+      </c>
+      <c r="D23" s="28">
+        <f>SUM(D4:D22)</f>
+        <v>37.951000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14242,116 +14248,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="233"/>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="235"/>
+      <c r="A1" s="239"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="241"/>
     </row>
     <row r="2" spans="1:21" ht="18">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="242" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="244"/>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="246"/>
+      <c r="A3" s="250"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="252"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="243">
         <v>481873</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="249"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="255"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="238" t="s">
+      <c r="B5" s="244" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="251"/>
-      <c r="M5" s="251"/>
-      <c r="N5" s="251"/>
-      <c r="O5" s="252"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="256"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="258"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="241"/>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="255"/>
+      <c r="A6" s="247"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="260"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="260"/>
+      <c r="O6" s="261"/>
     </row>
     <row r="7" spans="1:21" ht="64.5" customHeight="1">
       <c r="A7" s="140" t="s">
@@ -14547,7 +14553,7 @@
         <f t="shared" si="4"/>
         <v>7.375</v>
       </c>
-      <c r="U10" s="310"/>
+      <c r="U10" s="208"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="138" t="s">

--- a/2-Basico/Funções+Básicas01.xlsx
+++ b/2-Basico/Funções+Básicas01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Curso_Excel_BI_Udemy\2-Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261BBC94-3914-43F7-9B99-53E32A44B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A15DF62-B34D-496F-B1BD-4ABD33A29134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="14" r:id="rId1"/>
@@ -3656,7 +3656,7 @@
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4397,6 +4397,7 @@
     <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="39" fillId="24" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -4427,14 +4428,7 @@
     <cellStyle name="Porcentagem" xfId="25" builtinId="5"/>
     <cellStyle name="Saída" xfId="26" builtinId="21"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -4457,6 +4451,60 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4657,32 +4705,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -7040,29 +7062,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="A5:E25" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Ênfase2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E63856EF-036E-4520-8CEA-B996DC4501CD}" name="TabMercadoria" displayName="TabMercadoria" ref="A4:D26" totalsRowShown="0" dataDxfId="3" dataCellStyle="Moeda">
+  <autoFilter ref="A4:D26" xr:uid="{E63856EF-036E-4520-8CEA-B996DC4501CD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{48475B07-07ED-4C9F-A2DB-F8F94445E649}" name="Mercadoria"/>
+    <tableColumn id="2" xr3:uid="{AF32FA3B-8965-4C3F-B138-CDE3A6E07585}" name="Valor"/>
+    <tableColumn id="3" xr3:uid="{4865274A-F2E9-46FB-B274-3C47D7C9C580}" name="Desconto"/>
+    <tableColumn id="4" xr3:uid="{04520171-6295-49F1-B765-58FC2CF558EB}" name="Total" dataDxfId="2">
+      <calculatedColumnFormula>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="A5:E25" totalsRowShown="0" headerRowDxfId="17" headerRowCellStyle="Ênfase2">
   <autoFilter ref="A5:E25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Produtos" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Preço de Venda" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Qtd. Vendidas" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Produtos" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Preço de Venda" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Qtd. Vendidas" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="A3:F12" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="A3:F12" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A3:F12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Cód. Prod." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Descrição" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data Compra" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Valor a prazo" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parcelas" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Vr. da Prest." dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Cód. Prod." dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Descrição" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data Compra" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Valor a prazo" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parcelas" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Vr. da Prest." dataDxfId="0">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7797,7 +7838,7 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Aprovado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10381,7 +10422,7 @@
       </c>
       <c r="G7" s="210">
         <f ca="1">NOW()</f>
-        <v>46076.803322569445</v>
+        <v>46076.867567592592</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12519,18 +12560,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="115.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12580,6 +12621,10 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>39.9</v>
+      </c>
       <c r="H5" t="s">
         <v>420</v>
       </c>
@@ -12594,6 +12639,10 @@
       <c r="C6">
         <v>3.5</v>
       </c>
+      <c r="D6">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>76.400000000000006</v>
+      </c>
       <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:9">
@@ -12606,6 +12655,10 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>45.9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.75">
       <c r="A8" t="s">
@@ -12617,10 +12670,17 @@
       <c r="C8">
         <v>4.5</v>
       </c>
+      <c r="D8">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>49.95</v>
+      </c>
       <c r="H8" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="I8" s="192"/>
+      <c r="I8" s="192">
+        <f>SUM(TabMercadoria[Total])</f>
+        <v>2228.6000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -12632,6 +12692,10 @@
       <c r="C9">
         <v>10</v>
       </c>
+      <c r="D9">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>92.25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
       <c r="A10" t="s">
@@ -12643,10 +12707,17 @@
       <c r="C10">
         <v>12</v>
       </c>
+      <c r="D10">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>177.9</v>
+      </c>
       <c r="H10" s="191" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="193"/>
+      <c r="I10" s="193">
+        <f>MAX(TabMercadoria[Total])</f>
+        <v>233.5</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -12658,6 +12729,10 @@
       <c r="C11">
         <v>4.3</v>
       </c>
+      <c r="D11">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>29.999999999999996</v>
+      </c>
       <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" ht="18.75">
@@ -12670,10 +12745,17 @@
       <c r="C12">
         <v>1.9</v>
       </c>
+      <c r="D12">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>83</v>
+      </c>
       <c r="H12" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="193"/>
+      <c r="I12" s="193">
+        <f>MIN(TabMercadoria[Total])</f>
+        <v>29.999999999999996</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -12685,6 +12767,10 @@
       <c r="C13">
         <v>3.9</v>
       </c>
+      <c r="D13">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.75">
       <c r="A14" t="s">
@@ -12696,10 +12782,17 @@
       <c r="C14">
         <v>5.5</v>
       </c>
+      <c r="D14">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>63</v>
+      </c>
       <c r="H14" s="191" t="s">
         <v>417</v>
       </c>
-      <c r="I14" s="193"/>
+      <c r="I14" s="193">
+        <f>LARGE(TabMercadoria[Total],2)</f>
+        <v>207.9</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -12711,6 +12804,10 @@
       <c r="C15">
         <v>4.5</v>
       </c>
+      <c r="D15">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>30.4</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.75">
       <c r="A16" t="s">
@@ -12722,10 +12819,17 @@
       <c r="C16">
         <v>5</v>
       </c>
+      <c r="D16">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>60.900000000000006</v>
+      </c>
       <c r="H16" s="191" t="s">
         <v>418</v>
       </c>
-      <c r="I16" s="193"/>
+      <c r="I16" s="193">
+        <f>SMALL(TabMercadoria[Total],2)</f>
+        <v>30.4</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -12737,6 +12841,10 @@
       <c r="C17">
         <v>6</v>
       </c>
+      <c r="D17">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>80.3</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="18.75">
       <c r="A18" t="s">
@@ -12748,10 +12856,17 @@
       <c r="C18">
         <v>5</v>
       </c>
+      <c r="D18">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>144.9</v>
+      </c>
       <c r="H18" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="I18" s="193"/>
+      <c r="I18" s="193">
+        <f>AVERAGE(TabMercadoria[Total])</f>
+        <v>101.30000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -12763,6 +12878,10 @@
       <c r="C19">
         <v>8</v>
       </c>
+      <c r="D19">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>172.9</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -12774,6 +12893,10 @@
       <c r="C20">
         <v>12</v>
       </c>
+      <c r="D20">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>186.5</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -12785,6 +12908,10 @@
       <c r="C21">
         <v>15</v>
       </c>
+      <c r="D21">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>233.5</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -12796,6 +12923,10 @@
       <c r="C22">
         <v>22</v>
       </c>
+      <c r="D22">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>207.9</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -12807,6 +12938,10 @@
       <c r="C23">
         <v>6</v>
       </c>
+      <c r="D23">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>69.5</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -12818,6 +12953,10 @@
       <c r="C24">
         <v>5</v>
       </c>
+      <c r="D24">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>70.5</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -12829,6 +12968,10 @@
       <c r="C25">
         <v>30</v>
       </c>
+      <c r="D25">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -12839,6 +12982,10 @@
       </c>
       <c r="C26">
         <v>50</v>
+      </c>
+      <c r="D26">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12847,6 +12994,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12855,7 +13005,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12925,7 +13075,10 @@
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>224.5</v>
+      </c>
       <c r="H6" s="13" t="s">
         <v>421</v>
       </c>
@@ -12943,7 +13096,10 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>79.900000000000006</v>
+      </c>
       <c r="H7" s="195"/>
     </row>
     <row r="8" spans="1:8">
@@ -12959,7 +13115,10 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>149.69999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10">
@@ -12974,7 +13133,10 @@
       <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="196"/>
     </row>
     <row r="10" spans="1:8">
@@ -12990,7 +13152,10 @@
       <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>204.5</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10">
@@ -13005,7 +13170,10 @@
       <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6">
@@ -13020,7 +13188,10 @@
       <c r="D12" s="6">
         <v>6</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>205.79999999999998</v>
+      </c>
       <c r="H12" s="195"/>
     </row>
     <row r="13" spans="1:8">
@@ -13036,7 +13207,10 @@
       <c r="D13" s="10">
         <v>8</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>679.2</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
@@ -13051,7 +13225,10 @@
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>140.69999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10">
@@ -13066,7 +13243,10 @@
       <c r="D15" s="10">
         <v>8</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>548</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6">
@@ -13081,7 +13261,10 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>34.9</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10">
@@ -13096,7 +13279,10 @@
       <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6">
@@ -13111,7 +13297,10 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10">
@@ -13126,7 +13315,10 @@
       <c r="D19" s="10">
         <v>12</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>1798.8000000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6">
@@ -13141,7 +13333,10 @@
       <c r="D20" s="6">
         <v>7</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>1266.3</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10">
@@ -13156,7 +13351,10 @@
       <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>397</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6">
@@ -13171,7 +13369,10 @@
       <c r="D22" s="6">
         <v>4</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>994</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10">
@@ -13186,7 +13387,10 @@
       <c r="D23" s="10">
         <v>3</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>689.7</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6">
@@ -13201,7 +13405,10 @@
       <c r="D24" s="6">
         <v>8</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>604</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10">
@@ -13216,7 +13423,10 @@
       <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="E26" s="12"/>
@@ -13245,8 +13455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13316,7 +13526,10 @@
       <c r="E4" s="46">
         <v>5</v>
       </c>
-      <c r="F4" s="197"/>
+      <c r="F4" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>103.6</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="49">
@@ -13334,7 +13547,10 @@
       <c r="E5" s="47">
         <v>15</v>
       </c>
-      <c r="F5" s="205"/>
+      <c r="F5" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>39.333333333333336</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="50">
@@ -13352,7 +13568,10 @@
       <c r="E6" s="46">
         <v>5</v>
       </c>
-      <c r="F6" s="197"/>
+      <c r="F6" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>89.8</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="49">
@@ -13370,7 +13589,10 @@
       <c r="E7" s="47">
         <v>6</v>
       </c>
-      <c r="F7" s="205"/>
+      <c r="F7" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>78.166666666666671</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="50">
@@ -13388,7 +13610,10 @@
       <c r="E8" s="46">
         <v>12</v>
       </c>
-      <c r="F8" s="197"/>
+      <c r="F8" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>31.666666666666668</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="49">
@@ -13406,7 +13631,10 @@
       <c r="E9" s="47">
         <v>2</v>
       </c>
-      <c r="F9" s="205"/>
+      <c r="F9" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>210</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="50">
@@ -13424,7 +13652,10 @@
       <c r="E10" s="46">
         <v>3</v>
       </c>
-      <c r="F10" s="197"/>
+      <c r="F10" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>93.333333333333329</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="49">
@@ -13442,7 +13673,10 @@
       <c r="E11" s="47">
         <v>6</v>
       </c>
-      <c r="F11" s="205"/>
+      <c r="F11" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="200">
@@ -13460,7 +13694,10 @@
       <c r="E12" s="204">
         <v>12</v>
       </c>
-      <c r="F12" s="206"/>
+      <c r="F12" s="206">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>38.333333333333336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13671,7 +13908,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13681,7 +13918,7 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13744,8 +13981,14 @@
       <c r="E6" s="54">
         <v>80</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="F6" s="316">
+        <f>C6*E6</f>
+        <v>400</v>
+      </c>
+      <c r="G6" s="316">
+        <f>F6*$C$3</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="52">
@@ -13763,8 +14006,14 @@
       <c r="E7" s="54">
         <v>65</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="F7" s="316">
+        <f t="shared" ref="F7:F13" si="0">C7*E7</f>
+        <v>650</v>
+      </c>
+      <c r="G7" s="316">
+        <f t="shared" ref="G7:G13" si="1">F7*$C$3</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="52">
@@ -13782,8 +14031,14 @@
       <c r="E8" s="54">
         <v>80</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="316">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G8" s="316">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="52">
@@ -13801,8 +14056,14 @@
       <c r="E9" s="54">
         <v>75</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="316">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="G9" s="316">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="52">
@@ -13820,8 +14081,14 @@
       <c r="E10" s="54">
         <v>70</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="F10" s="316">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G10" s="316">
+        <f t="shared" si="1"/>
+        <v>11.200000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="52">
@@ -13839,8 +14106,14 @@
       <c r="E11" s="54">
         <v>40</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="F11" s="316">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G11" s="316">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="52">
@@ -13858,8 +14131,14 @@
       <c r="E12" s="54">
         <v>45</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="316">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="G12" s="316">
+        <f t="shared" si="1"/>
+        <v>16.2</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="52">
@@ -13877,8 +14156,14 @@
       <c r="E13" s="54">
         <v>20</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="316">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="316">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
@@ -13897,8 +14182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
